--- a/pred_ohlcv/54_21/2019-10-19 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-132608.3618747851</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-132954.1257747851</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-133116.2408747851</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-135622.9173747851</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-136004.8977902214</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-135981.6750902213</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-136183.6762902213</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-139367.1493902213</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-139268.7511192041</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-139443.0771192041</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-139968.0632087435</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-139862.0632087435</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-141430.8843087435</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-141423.4635087435</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-134220.3587747851</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-133241.8174747851</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-133241.8174747851</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-133241.8174747851</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-133233.8409747851</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-133031.8409747851</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-132961.8199747851</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-132519.5137747851</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-132744.8137747851</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-132678.0664747851</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-132708.0196747851</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-132608.3618747851</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-132954.1257747851</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-132744.1257747851</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-132744.1257747851</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-132745.1257747851</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-133353.9408747851</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-133353.9408747851</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-133261.7408747851</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-133262.7408747851</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-133116.2408747851</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-135622.9173747851</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-136004.8977902214</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-135981.6750902213</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-136183.6762902213</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-139367.1493902213</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-139268.7511192041</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-139443.0771192041</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-139165.8836316442</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-137097.2587316443</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-137097.2587316443</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-137242.2757316442</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-137918.6477087435</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-139968.0632087435</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-139862.0632087435</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-141430.8843087435</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-141423.4635087435</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-141378.4177087435</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-140308.3057087435</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-140229.3714087435</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-140230.5395087435</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-140224.2478087435</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-140205.3904087435</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-140605.3904087435</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-140848.2087087435</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-141048.2862087435</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-141097.3873087435</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-141097.3873087435</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-141193.8873087435</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-141138.2814087436</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-140990.6920087436</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-140971.6593087435</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-140971.6593087435</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
